--- a/soccer/jugadores.xlsx
+++ b/soccer/jugadores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegom/MarcadoresDeportivos/soccer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09F969F-7FF0-B14E-B599-2DF71B96AC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEB41D3-7725-374B-A65A-3513889F377E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{5BAD0FA8-944A-484E-99B1-DC6D13CC9B50}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{5BAD0FA8-944A-484E-99B1-DC6D13CC9B50}"/>
   </bookViews>
   <sheets>
     <sheet name="panteras" sheetId="1" r:id="rId1"/>
@@ -522,6 +522,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
